--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G432E_Block-0</t>
+          <t>V1108I_Block-6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcgaggagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgagatcgagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R436Q_Block-0</t>
+          <t>G1041T_Block-6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcagtacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacaccatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I451A_Block-0</t>
+          <t>Y827R_Block-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcgccaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggttcgcctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A484S_Block-0</t>
+          <t>G151C_Block-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaagtcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagtgcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K562A_Block-0</t>
+          <t>D574W_Block-2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtgggcccggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctggtggtacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I569V_Block-0</t>
+          <t>A216K_Block-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccgtgatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcaagctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L584V_Block-0</t>
+          <t>G199D_Block-0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctggtgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgacctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T595S_Block-0</t>
+          <t>D398Q_Block-2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgtcgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>cgcctacgcgctgggcatcacccagatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D599Y_Block-0</t>
+          <t>A789N_Block-4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggctacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagc</t>
+          <t>gccgttcgctgactacgcgttcaacaagtcacatgccaacggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P618D_Block-0</t>
+          <t>I481L_Block-2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtggacctggacgacaaggccacctatgagc</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggctgaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N677H_Block-2</t>
+          <t>S991S_Block-6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cccgatgggcatgaacgcacaccacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q722V_Block-2</t>
+          <t>N784H_Block-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcggtgaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>gccgttcgctgactacgcgttccacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A770-PLR_Block-2</t>
+          <t>R1035P_Block-6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgccgctgcgcctgtgggacaccatcctgccgttcgctgactacg</t>
+          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaacccgagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D773E_Block-2</t>
+          <t>A180E_Block-0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggagaccatcctgccgttcgctgactacg</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggagaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K922R_Block-4</t>
+          <t>A484V_Block-2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgccgcggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggtgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E972G_Block-4</t>
+          <t>G498G_Block-2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatggctgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctggcatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>W973S_Block-4</t>
+          <t>R204F_Block-0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtcggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaattccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Q1023R_Block-4</t>
+          <t>R232M_Block-0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccgcgtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgaccatggacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A1031T_Block-4</t>
+          <t>G923A_Block-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctgacctcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaaggcccttttcctggtgcacagcgatgcgg</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N1034Q_Block-4</t>
+          <t>Q1131Y_Block-6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgcagcggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaatacgtgttggcgcgccaccccggcacct</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N1038T_Block-4</t>
+          <t>Y105S-M111F_Block-0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaccaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctcgacgcacctgacgatgttcgccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S1046N_Block-4</t>
+          <t>S100F-M110Q_Block-0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggctaacgcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtcttcggcagcggctcctacacgcacctgacgcagatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L1052E_Block-4</t>
+          <t>S60-YWVGSC_Block-0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatgagacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactcctactgggtgggctcgtgcgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>V1086N_Block-4</t>
+          <t>D428-CSGR_Block-2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcgaaccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgactgctcgggccgccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R1090A_Block-4</t>
+          <t>A491-S497_Block-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgacgccatcgcattgatcgccaatgacctcacagtgcccgacttttcca</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N1096E_Block-4</t>
+          <t>H127-K136_Block-0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccgaggacctcacagtgcccgacttttcca</t>
+          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
         </is>
       </c>
     </row>

--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V1108I_Block-6</t>
+          <t>T224W_Block-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgagatcgagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgcctggaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G1041T_Block-6</t>
+          <t>E184E_Block-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacaccatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y827R_Block-4</t>
+          <t>Y859T_Block-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggttcgcctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgcaccgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G151C_Block-0</t>
+          <t>Y58N_Block-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagtgcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttcaacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D574W_Block-2</t>
+          <t>C158S_Block-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctggtggtacccggcgtgcgaggccatcggtc</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatcgccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A216K_Block-0</t>
+          <t>L217R_Block-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcaagctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgcgcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G199D_Block-0</t>
+          <t>H919K_Block-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgacctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggaaggcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D398Q_Block-2</t>
+          <t>R1135L_Block-3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcacccagatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgctgcaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A789N_Block-4</t>
+          <t>T1139F_Block-3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccaacggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcttctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I481L_Block-2</t>
+          <t>S1115P_Block-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggctgaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcccgttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S991S_Block-6</t>
+          <t>I689I_Block-2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N784H_Block-4</t>
+          <t>A931G_Block-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttccacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatggcgtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R1035P_Block-6</t>
+          <t>D47Y_Block-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaacccgagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>gatgcccgcggtggggatgacctaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A180E_Block-0</t>
+          <t>R322Q_Block-1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggagaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcagcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A484V_Block-2</t>
+          <t>G740C_Block-3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggtgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgacattctacgcaaggccatgtgcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>G498G_Block-2</t>
+          <t>V817H_Block-3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctggcatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcgcacggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R204F_Block-0</t>
+          <t>E150V_Block-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaattccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgtgggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R232M_Block-0</t>
+          <t>L367M_Block-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgaccatggacgccgcccacaaccatgaggctt</t>
+          <t>gtactttctgatcgtcgccgacatgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>G923A_Block-4</t>
+          <t>H236D_Block-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaaggcccttttcctggtgcacagcgatgcgg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgccgacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Q1131Y_Block-6</t>
+          <t>N218A_Block-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaatacgtgttggcgcgccaccccggcacct</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcgccattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Y105S-M111F_Block-0</t>
+          <t>A530K-L560K-A557H-P559N_Block-2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctcgacgcacctgacgatgttcgccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccaagcgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgagcacatcaacaagtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S100F-M110Q_Block-0</t>
+          <t>T957F-L986K-E984M-M985E_Block-3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtcttcggcagcggctcctacacgcacctgacgcagatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggttcggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcatggagaagggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S60-YWVGSC_Block-0</t>
+          <t>V1018-YDCG_Block-3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactcctactgggtgggctcgtgcgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtctacgactgcggccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D428-CSGR_Block-2</t>
+          <t>V843-MDKHVC_Block-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgactgctcgggccgccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcatggacaagcacgtgtgcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A491-S497_Block-2</t>
+          <t>T482-A484_Block-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcgcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H127-K136_Block-0</t>
+          <t>R832-I836_Block-3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>

--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V1108I_Block-6</t>
+          <t>R650N_Block-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgagatcgagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgcaacatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G1041T_Block-6</t>
+          <t>R429K_Block-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacaccatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgacaagcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y827R_Block-4</t>
+          <t>A448R_Block-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggttcgcctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>caagtggggccacgaccgggtccgccaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G151C_Block-0</t>
+          <t>P41A_Block-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagtgcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatggccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D574W_Block-2</t>
+          <t>E291Y_Block-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctggtggtacccggcgtgcgaggccatcggtc</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgcctaccgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A216K_Block-0</t>
+          <t>T500C_Block-2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcaagctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatctgcgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G199D_Block-0</t>
+          <t>D259I_Block-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgacctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcatcggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D398Q_Block-2</t>
+          <t>A530M_Block-2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcacccagatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccatgcgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A789N_Block-4</t>
+          <t>F914Q_Block-3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccaacggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgcaggactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I481L_Block-2</t>
+          <t>A789H_Block-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggctgaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgcgttcaacaagtcacatgcccacggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S991S_Block-6</t>
+          <t>E984E_Block-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N784H_Block-4</t>
+          <t>D896G_Block-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttccacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcgg</t>
+          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcggcatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R1035P_Block-6</t>
+          <t>Q722S_Block-2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaacccgagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacct</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgtcgaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A180E_Block-0</t>
+          <t>I289F_Block-1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggagaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgttcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A484V_Block-2</t>
+          <t>R682L_Block-2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggtgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgacctgaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>G498G_Block-2</t>
+          <t>G262W_Block-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctggcatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgactggtactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R204F_Block-0</t>
+          <t>D400D_Block-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaattccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R232M_Block-0</t>
+          <t>A510T_Block-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgaccatggacgccgcccacaaccatgaggctt</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggagaccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>G923A_Block-4</t>
+          <t>P403P_Block-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaaggcccttttcctggtgcacagcgatgcgg</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccgcacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Q1131Y_Block-6</t>
+          <t>V1024V_Block-3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaatacgtgttggcgcgccaccccggcacct</t>
+          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Y105S-M111F_Block-0</t>
+          <t>A115W-L144W_Block-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctcgacgcacctgacgatgttcgccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaactggaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagtggatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S100F-M110Q_Block-0</t>
+          <t>R173T-E203C-T201D-L200R_Block-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtcttcggcagcggctcctacacgcacctgacgcagatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggataccgaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggcgcgacatctgccgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S60-YWVGSC_Block-0</t>
+          <t>K266-PFWRMEINQ_Block-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactcctactgggtgggctcgtgcgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagccgttctggcgcatggagatcaaccagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D428-CSGR_Block-2</t>
+          <t>A77-SDYWRFH_Block-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgactgctcgggccgccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgtcggactactggcgcttccacccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A491-S497_Block-2</t>
+          <t>A680-A688_Block-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtc</t>
+          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H127-K136_Block-0</t>
+          <t>A899-V904_Block-3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctt</t>
+          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
         </is>
       </c>
     </row>

--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R650N_Block-2</t>
+          <t>T224W_Block-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgcaacatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgcctggaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R429K_Block-1</t>
+          <t>E184E_Block-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgacaagcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A448R_Block-2</t>
+          <t>Y859T_Block-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtccgccaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgcaccgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P41A_Block-1</t>
+          <t>Y58N_Block-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatggccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttcaacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E291Y_Block-1</t>
+          <t>C158S_Block-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgcctaccgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatcgccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T500C_Block-2</t>
+          <t>L217R_Block-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatctgcgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgcgcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D259I_Block-1</t>
+          <t>H919K_Block-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcatcggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggaaggcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A530M_Block-2</t>
+          <t>R1135L_Block-3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccatgcgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgctgcaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F914Q_Block-3</t>
+          <t>T1139F_Block-3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgcaggactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcttctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A789H_Block-3</t>
+          <t>S1115P_Block-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgcccacggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcccgttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E984E_Block-3</t>
+          <t>I689I_Block-2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D896G_Block-3</t>
+          <t>A931G_Block-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcggcatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatggcgtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q722S_Block-2</t>
+          <t>D47Y_Block-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgtcgaaggtggcgagctactcgttggccc</t>
+          <t>gatgcccgcggtggggatgacctaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I289F_Block-1</t>
+          <t>R322Q_Block-1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgttcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcagcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R682L_Block-2</t>
+          <t>G740C_Block-3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgacctgaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>cgacattctacgcaaggccatgtgcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>G262W_Block-1</t>
+          <t>V817H_Block-3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgactggtactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcgcacggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D400D_Block-1</t>
+          <t>E150V_Block-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgtgggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A510T_Block-2</t>
+          <t>L367M_Block-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggagaccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>gtactttctgatcgtcgccgacatgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P403P_Block-1</t>
+          <t>H236D_Block-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccgcacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgccgacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>V1024V_Block-3</t>
+          <t>N218A_Block-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcgccattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A115W-L144W_Block-1</t>
+          <t>A530K-L560K-A557H-P559N_Block-2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaactggaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagtggatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccaagcgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgagcacatcaacaagtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R173T-E203C-T201D-L200R_Block-1</t>
+          <t>T957F-L986K-E984M-M985E_Block-3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggataccgaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggcgcgacatctgccgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggttcggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcatggagaagggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K266-PFWRMEINQ_Block-1</t>
+          <t>V1018-YDCG_Block-3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagccgttctggcgcatggagatcaaccagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtctacgactgcggccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A77-SDYWRFH_Block-1</t>
+          <t>V843-MDKHVC_Block-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgaggtggagcggctggggatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgtcggactactggcgcttccacccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcatggacaagcacgtgtgcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A680-A688_Block-2</t>
+          <t>T482-A484_Block-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>caagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggccc</t>
+          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcgcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A899-V904_Block-3</t>
+          <t>R832-I836_Block-3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcgg</t>
+          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
         </is>
       </c>
     </row>

--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T224W_Block-1</t>
+          <t>T1154Q_Block-4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgcctggaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcacccagctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E184E_Block-1</t>
+          <t>R538L_Block-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatcctgaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y859T_Block-3</t>
+          <t>E278M_Block-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgcaccgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacatggtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Y58N_Block-1</t>
+          <t>I1091W_Block-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttcaacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgctgggcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C158S_Block-1</t>
+          <t>P765A_Block-3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatcgccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctgccgcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L217R_Block-1</t>
+          <t>S551I_Block-2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgcgcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcatcgagccgctgactgaggccatcccgt</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H919K_Block-3</t>
+          <t>T155P_Block-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggaaggcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>acacgccgagggcatcatcatcccgaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R1135L_Block-3</t>
+          <t>M419V_Block-2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgctgcaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcggtgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T1139F_Block-3</t>
+          <t>S846C_Block-3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcttctcgcaggtgcatctgcggctcatca</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatgcggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S1115P_Block-3</t>
+          <t>F656K_Block-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcccgttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>gcgccgcatgcagccgaccgggaaggaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I689I_Block-2</t>
+          <t>A234L-L242Q-Q273R_Block-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
+          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacctggcccacaaccatgaggctttgcagtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccgcatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A931G_Block-3</t>
+          <t>D780C-A807T-A829G-H787A-A811T-Y800Y-M793I-D820E-L801G-A799G_Block-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatggcgtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgcttgctacgcgttcaacaagtcagccgccgccggctacggcatcgtgtcctactggacgggctacggcaaggccaactatcccaccgagtacatgaccggtctgttgacgtcggtcggcgacgagaaagacaaggccgcggtttatctgggcgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D47Y_Block-1</t>
+          <t>D970V-M985A-A980G_Block-4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgacctaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgtggatgagtgggaggacaaacacaaactcggcctagagcgcgaggccctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R322Q_Block-1</t>
+          <t>I1010F-A1047I-S1032T-A1031A_Block-4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcagcacgaggtggacgccgggcttcgcc</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgttcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggccaccgtgaaccggagggtcaacaaaaacggaatgccatgggcttcaatccaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G740C_Block-3</t>
+          <t>G987S-D1015Y-I1010A-P1019A-V1018A-A1031T-G992Q-Y989N_Block-4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgtgcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgtcgctgaacgtctcgcagcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcggccccagcgatcctctacggcgatgccgccaacgatgcccaagtgcgggtgggcggcatcctgacctcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>V817H_Block-3</t>
+          <t>A297D-A327W-D326F-Q317C-R344C_Block-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcgcacggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgacgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgactgcgcgtcctggctgcgtcacgaggtgttctgggggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagtgcgccgcctacgagatcgacgtcatct</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E150V_Block-1</t>
+          <t>D398K-F426Q-N413K_Block-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgtgggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgcctacgcgctgggcatcaccaagatcgacccgattccacacggtctgctgttcgagcggttcctcaagcccgagcgcacctcgatgcccgacatcgatatcgaccaggacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L367M_Block-2</t>
+          <t>W772D-A811D-A789W-L801V-D819T_Block-3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gtactttctgatcgtcgccgacatgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctggacgacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgcctggggctacggcatggtgtcctactggacggcctacgtgaaggccaactatcccgccgagtacatggacggtctgttgacgtcggtcggcaccgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>H236D_Block-1</t>
+          <t>A913W-G951R-S929I-L944F-K922M-D948P-L924E-A943R-F914G_Block-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgccgacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>cgaatcgctgatcaaggcgggttggggcgactcgctggggcatgcccgcatgggtgagttcctggtgcacatcgatgcggtggactcggtgctgggcaccaagaaggccgagcgcttcgggcagttcccgctcttccgcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N218A_Block-1</t>
+          <t>V746I-I775A-F783W-P777L-P765D-G792I-A782W-K769H_Block-3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gatgcccgcggtggggatgaccgaccacggaaacatgttcggtgccagcgagttctacaactccgcgaccaaggccgggatcaagccgatcatcggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcgccattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgcc</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgagatcctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctgacgcggccatccacgcgctgtgggacaccgccctgctgttcgctgactactggtggaacaagtcacatgccgccggctacatcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A530K-L560K-A557H-P559N_Block-2</t>
+          <t>K743-HGSMTN_Block-3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccaagcgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgagcacatcaacaagtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacacggctcgatgaccaaccgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T957F-L986K-E984M-M985E_Block-3</t>
+          <t>A1134-RYGLESPWM_Block-4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggttcggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcatggagaagggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgctacggcctggagtcgccgtggatgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>V1018-YDCG_Block-3</t>
+          <t>Y191-L193_Block-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtctacgactgcggccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaaccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
         </is>
       </c>
     </row>
@@ -849,46 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>V843-MDKHVC_Block-3</t>
+          <t>A825-A829_Block-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcatggacaagcacgtgtgcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>T482-A484_Block-2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>gtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcgcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaag</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>R832-I836_Block-3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>cgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatca</t>
+          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
         </is>
       </c>
     </row>

--- a/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
+++ b/tutorial/output/eblocks-plate-upload-template-96-filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T1154Q_Block-4</t>
+          <t>A568K_Block-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcacccagctggcacttgatcagtcgttgcggg</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacgggaagatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R538L_Block-2</t>
+          <t>K457T_Block-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatcctgaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaccaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E278M_Block-1</t>
+          <t>R1090H_Block-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacatggtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccacatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I1091W_Block-4</t>
+          <t>Q1048Y_Block-3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgctgggcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgtacttggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P765A_Block-3</t>
+          <t>R255G_Block-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctgccgcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatggcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S551I_Block-2</t>
+          <t>E415N_Block-2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcatcgagccgctgactgaggccatcccgt</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccaaccgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T155P_Block-1</t>
+          <t>S898K_Block-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>acacgccgagggcatcatcatcccgaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatcaaggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M419V_Block-2</t>
+          <t>A799D_Block-3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcggtgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggactacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S846C_Block-3</t>
+          <t>V523W_Block-2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatgcggcttgaacttcgcatcggtcggcc</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggactggcgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F656K_Block-3</t>
+          <t>G912I_Block-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggaaggaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgatcgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A234L-L242Q-Q273R_Block-1</t>
+          <t>A1113Y_Block-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacctggcccacaaccatgaggctttgcagtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccgcatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctgtacgtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D780C-A807T-A829G-H787A-A811T-Y800Y-M793I-D820E-L801G-A799G_Block-3</t>
+          <t>K884T_Block-3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgcttgctacgcgttcaacaagtcagccgccgccggctacggcatcgtgtcctactggacgggctacggcaaggccaactatcccaccgagtacatgaccggtctgttgacgtcggtcggcgacgagaaagacaaggccgcggtttatctgggcgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaccttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D970V-M985A-A980G_Block-4</t>
+          <t>L908M_Block-3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgtggatgagtgggaggacaaacacaaactcggcctagagcgcgaggccctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgatgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I1010F-A1047I-S1032T-A1031A_Block-4</t>
+          <t>A725Y_Block-2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgttcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggccaccgtgaaccggagggtcaacaaaaacggaatgccatgggcttcaatccaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtgtacagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G987S-D1015Y-I1010A-P1019A-V1018A-A1031T-G992Q-Y989N_Block-4</t>
+          <t>L222P_Block-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgtcgctgaacgtctcgcagcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcggccccagcgatcctctacggcgatgccgccaacgatgcccaagtgcgggtgggcggcatcctgacctcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctccggccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A297D-A327W-D326F-Q317C-R344C_Block-1</t>
+          <t>E657A_Block-2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgacgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgactgcgcgtcctggctgcgtcacgaggtgttctgggggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagtgcgccgcctacgagatcgacgtcatct</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgccgacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D398K-F426Q-N413K_Block-2</t>
+          <t>I402Q_Block-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cgcctacgcgctgggcatcaccaagatcgacccgattccacacggtctgctgttcgagcggttcctcaagcccgagcgcacctcgatgcccgacatcgatatcgaccaggacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgt</t>
+          <t>gggcatcaccgacatcgacccgcagccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>W772D-A811D-A789W-L801V-D819T_Block-3</t>
+          <t>A730F_Block-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctggacgacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgcctggggctacggcatggtgtcctactggacggcctacgtgaaggccaactatcccgccgagtacatggacggtctgttgacgtcggtcggcaccgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttgttccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A913W-G951R-S929I-L944F-K922M-D948P-L924E-A943R-F914G_Block-4</t>
+          <t>P994L_Block-3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggttggggcgactcgctggggcatgcccgcatgggtgagttcctggtgcacatcgatgcggtggactcggtgctgggcaccaagaaggccgagcgcttcgggcagttcccgctcttccgcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatctgctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>V746I-I775A-F783W-P777L-P765D-G792I-A782W-K769H_Block-3</t>
+          <t>L589P_Block-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgagatcctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctgacgcggccatccacgcgctgtgggacaccgccctgctgttcgctgactactggtggaacaagtcacatgccgccggctacatcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcccgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K743-HGSMTN_Block-3</t>
+          <t>A268P_Block-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacacggctcgatgaccaaccgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcgccggccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A1134-RYGLESPWM_Block-4</t>
+          <t>N866S_Block-3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgctacggcctggagtcgccgtggatgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgttgcggg</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgctcggttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Y191-L193_Block-1</t>
+          <t>D259P_Block-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>acacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaaccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatct</t>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcccgggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,879 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A825-A829_Block-3</t>
+          <t>F964S_Block-3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggccatgggcaagaagaaacgcgaggtgctggagaaggagttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggcc</t>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgtcgaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>K939E_Block-3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccgagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M758R-F778I-T798G-N784W_Block-3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggccgccaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgatcgctgactacgcgttctggaagtcacatgccgccggctacggcatggtgtcctactggggcgcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>I468Y-A476A_Block-2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgataccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1103N-C1121S-Q1120I_Block-3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacaactccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggatctcgacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R429M-K459L_Block-2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgacatgcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccctggcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>T155Q-L167G_Block-1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatccagaccggatgcccgtcgggggaggtgcagacccgcggccggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Q638Q-R686A-G669P_Block-2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccccgccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaacgcccaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>N1096H-P1117E-L1112S-Q1141C-T1099T_Block-3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgcccacgacctcaccgtgcccgacttttccaacgccgaggtggagcggccgtcggcggtcagcttggagacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgtgcgtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A766S-T774I-N784I_Block-3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccgtcggccatcaaggcgctgtgggacatcatcctgccgttcgctgactacgcgttcatcaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P806N-K833H-A851V-N844Y_Block-3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactataacgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgccacctcggcatcaccgtgctcccgcccgacgtctacgaatctggcttgaacttcgtgtcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Y796G-A811W-R832E_Block-3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtccggctggacggcctacctcaaggccaactatcccgccgagtacatgtggggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgcgagaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>L627Y-Q638F-M673N_Block-2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagtacctgggccgcggcgacaccctgggcgtgttcttcctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcaacaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>V871S-C900Y-L875A-K910Q-I897Y_Block-3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaattcggtgggctcggccctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgactactcggcgtacaacaagaaggtgaccgaatcgctgatccaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>G187E-E194P-V230C_Block-1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcgagccggacaactacttccttccgctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactactgcacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>G642P-K683K_Block-2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcccgcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D933D-G958V-L936G-F950L_Block-3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgggcggcaccaagaaggccgaggcactggggcagttcgatctcctgggcagcaatgatgatgggaccgtgaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>P78Y-T116Q-D98V_Block-1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgtacggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgtggtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgcccagggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A661K-I663S_Block-2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcaaggtttcggcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P559S-F588T-L591S_Block-2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatctcgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacaccctgggctcgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>A461K-P487F-P495G-I499D-R506L_Block-2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcgaagctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgttcgcgatcatggccaaagacatcggcctgtctggggacaccgatcccagccacgaactgtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>L287Q-D298D-S319W-W300I-V299T_Block-1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccacccagttgatcgccgaacgggtgcagtcctacgccgacaccatcacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtggtggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F950D-A980Y-V990D-N953D-L981K_Block-3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcgacggcagcgacgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactctacaaggagcgcgagatgctgggactgtacgactcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>G336G-A365Q-S384R_Block-1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggcccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtccaggacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggccgcgccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>K939P-D975W-F964K-G951L_Block-3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccccgaaggccgaggcactggggcagttcgatctcttcctgagcaatgatgatgggaccggcaccgcagatcccgtgaagaccatcaaggtgcccgatgatgagtgggagtggaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>T1053Y-F1061Q_Block-3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctctacggcggcatcgaggtgatgttccagccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>P1011E-G1016V-L1052F-Q1023F_Block-3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcgaggcgatcctcgacgtggatgtccccaacgatgccttcgtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatttcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>N218S-Y264G-V230E-R255E_Block-1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctctcgattccgcctcttgccaccaatgactgccactacgagacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatgagttcaagttcgacggtgacggctacggcctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>G912N-A913R_Block-3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgaaccgcttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A179G-N190F-I219S-E184L-T201F_Block-1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccggcgcgaagtggcggctgatcgtcggaccggacttctacttccttgagctgatggaccacgggctgttcatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaactcgccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>V447C-L496I-T458D-S465C_Block-2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccggtgcgcgcaggtcatcaccttcggcaccatcaaagacaaagcggcgctgaaggattgcgcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgatctctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Y360L-A371M_Block-1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgctgtttctgatcgtcgccgacctgatcagctacatgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D425-NGM_Block-2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacaacggcatgttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Y679-KLMSV_Block-2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactataagctgatgtcggtggccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>L776-MHYPYGKF_Block-3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgatgcactacccgtacggcaagttcccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>L949-HYCPLCDAI_Block-3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctccactactgcccgctgtgcgacgccatcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R232-YCIWSN_Block-1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgctactgcatctggtcgaacgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>G598-LDM_Block-2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcctggacatggacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>T500-S_Block-2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcacctcggatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Y1065-DDFVHWQAY_Block-3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctacgacgacttcgtgcactggcaggcctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>M110-LWTRPF_Block-1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgctgtggacccgcccgttcatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgacggctactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>T529-NESQPLQ_Block-2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccaacgagtcgcagccgctgcaggcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>G262-Y264_Block-1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cggcgtggaggcatacatcgcgccgggctcgcggttcgacacccggcgcatcctgtggggtgaccccagccaaaaggccgacgacgtctccggcagcggctcctacacgcacctgacgatgatggccgagaacgccaccggtctgcgcaacctgttcaagctgtcctcgcatgcttccttcgagggccagctgagcaagtggtcgcgcatggacgccgagctcatcgccgaacacgccgagggcatcatcatcaccaccggatgcccgtcgggggaggtgcagacccgcctgcggctcggccaggatcgggaggcgctcgaagccgcggcgaagtggcgggagatcgtcggaccggacaactacttccttgagctgatggaccacgggctgaccatcgaacgccgggtccgtgacggtctgctcgagatcggacgcgcgctcaacattccgcctcttgccaccaatgactgccactacgtgacccgcgacgccgcccacaaccatgaggctttgttgtgtgtgcagaccggcaagaccctctcggatccgaatcgcttcaagttcgacggtgactacctgaagtcggccgccgagatgcgccagatctgggacgacgaagtgccgggcgcgtgtgactccaccttgttgatcgccgaacgggtgcagtcctacgccgacgtgtggacaccgcgcgaccggatgcccgtgtttccggtgcccgatgggcatgaccaggcgtcctggctgcgtcacgaggtggacgccgggcttcgccggcgatttccggccggtccgccggacgggtaccgcgagcgcgccgcctacgagatcgacgtcatctgctccaaaggtttcccatcgtactttctgatcgtcgccgacctgatcagctacgcgcggtcggcgggcataagggtgggtcccggccgcggctcggccgccggctcgctggtcgcctacg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>S551-E552_Block-2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R682-N684_Block-2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgacaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>I1147-T1153_Block-3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>L834-V838_Block-3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaaggtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>N1034-K1039_Block-3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>F12</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F453-A461_Block-2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtggggccacgaccgggtcgcgcaggtcatcaccgcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A1004-V1006_Block-3</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcagcggagaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>S1148-D1150_Block-3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>gttcgagggcttctccgatggcatgcaggccaacgggttctctccggcggccatcaaggcgctgtgggacaccatcctgccgttcgctgactacgcgttcaacaagtcacatgccgccggctacggcatggtgtcctactggacggcctacctcaaggccaactatcccgccgagtacatggccggtctgttgacgtcggtcggcgacgataaagacaaggccgcggtttatctggccgactgccgcaagctcggcatcaccgtgctcccgcccgacgtcaacgaatctggcttgaacttcgcatcggtcggccaagacatccgctacgggctgggcgcggtgcgcaacgttggcgctaatgtcgtgggctcgttgctccaaacccgcaacgacaagggcaagttcaccgacttttcggactacctgaacaagatcgacatctcggcgtgcaacaagaaggtgaccgaatcgctgatcaaggcgggtgcgttcgactcgctggggcatgcccgcaagggtcttttcctggtgcacagcgatgcggtggactcggtgctgggcaccaagaaggccgaggcactggggcagttcgatctcttcggcagcaatgatgatgggaccggcaccgcagatcccgtgttcaccatcaaggtgcccgatgatgagtgggaggacaaacacaaactcgccctagagcgcgagatgctgggactgtacgtctcggggcatcccctcaacggtgtggcacacttgctggctgcccaggtcgacaccgcgatcccagcgatcctcgacggcgatgtccccaacgatgcccaagtgcgggtgggcggcatcctggcgtcggtgaaccggagggtcaacaaaaacggaatgccatgggcttcagcgcaattggaggatctcacgggcggcatcgaggtgatgttcttcccgcacacctactccagctatggtgccgacatcgtcgacgatgccgtcgtgctggtcaacgccaaggtggcggtccgtgacgaccgcatcgcattgatcgccaatgacctcacagtgcccgacttttccaacgccgaggtggagcggccgctggcggtcagcttgcccacccggcagtgcacctttgacaaggtgagtgcgctcaaacaggtgttggcgcgccaccccggcacctcgcaggtgcatctgcggctcatcgaccggatcaccacgctggcacttgatcagtcgt</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>G443-A448_Block-2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>gggcatcaccgacatcgacccgattccacacggtctgctgttcgagcggttcctcaaccccgagcgcacctcgatgcccgacatcgatatcgacttcgacgaccggcgccgcggtgagatggtgcgctacgcagccgacaagtgggcgcaggtcatcaccttcggcaccatcaaaaccaaagcggcgctgaaggattcggcgcgaatccactacgggcagcccgggttcgccatcgccgaccggatcaccaaggcgttgccgccggcgatcatggccaaagacatcccgctgtctgggatcaccgatcccagccacgaacggtacaaggaggccgccgaggtccgcggcctgatcgaaaccgacccggacgtacgcaccatctaccagaccgcacgcgggttggaaggcctgatccgcaacgcgggtgtgcacgcctgcgcggtgatcatgagcagcgagccgctgactgaggccatcccgttgtggaagcggccgcaggacggggccatcatcaccggctgggattacccggcgtgcgaggccatcggtctgctgaaaatggacttcctgggcctgcggaacctgacgatcatcggcgacgcgatcgacaacgtcagggccaacaggggtatcgacctcgacctggaatccgtgccgctggacgacaaggccacctatgagctgctgggccgcggcgacaccctgggcgtgttccagctcgacggcgggcccatgcgcgacctgctgcgccgcatgcagccgaccgggttcgaagacgtcgtcgccgttatcgcgctgtaccggcccggcccgatgggcatgaacgcacacaacgactatgccgaccgcaagaacaaccggcaggccatcaaacctattcacccggaactcgaagaaccgctgcgcgagatcctcgccgagacctacggcctcatcgtctatcaagagcagatcatgcgcatcgcgcagaaggtggcgagctactcgttggcccgcgccgacattctacgcaaggcca</t>
         </is>
       </c>
     </row>
